--- a/N.Colon-Lettuce-PhenotypicChanges.xlsx
+++ b/N.Colon-Lettuce-PhenotypicChanges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolecolon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolecolon/Desktop/Phytoparastica/Excels_Data_Lettuce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E52B45B-840D-FA42-BD70-5CEF1130AB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8CA9B3-D4DF-AE4A-83B2-FCB922D485A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27640" windowHeight="15260" xr2:uid="{D5F0245E-B76E-DE43-B9D0-42458FD4244D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t xml:space="preserve">Phenotypic changes observed in L. sativa treated with selected fungal endophytes and FOL </t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>ND: Not determined</t>
+  </si>
+  <si>
+    <t>Outliers were removed prior to data analysis. Outliers from SY1140A (2 for Leaf #, 1 for Leaf length, and 2 for Root length).</t>
   </si>
 </sst>
 </file>
@@ -177,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -206,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,9 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEEF925-FCC6-0249-9A6B-B462BB22E8CC}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -560,98 +568,74 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="3"/>
+      <c r="A5" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" s="8" customFormat="1">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>177.8</v>
-      </c>
-      <c r="D7" s="8">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8">
-        <v>106.68</v>
-      </c>
-      <c r="F7" s="8">
-        <v>88.9</v>
-      </c>
-      <c r="G7" s="8">
-        <v>279.39999999999998</v>
-      </c>
-      <c r="H7" s="8">
-        <v>62</v>
-      </c>
-      <c r="I7" s="8">
-        <v>13.85</v>
-      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>182.88</v>
+        <v>177.8</v>
       </c>
       <c r="D8" s="8">
         <v>18</v>
       </c>
       <c r="E8" s="8">
-        <v>101.6</v>
+        <v>106.68</v>
       </c>
       <c r="F8" s="8">
-        <v>106.68</v>
+        <v>88.9</v>
       </c>
       <c r="G8" s="8">
-        <v>254</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="H8" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I8" s="8">
-        <v>6.4980000000000002</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1">
@@ -659,28 +643,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>165.1</v>
+        <v>182.88</v>
       </c>
       <c r="D9" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E9" s="8">
-        <v>81.28</v>
+        <v>101.6</v>
       </c>
       <c r="F9" s="8">
-        <v>88.9</v>
+        <v>106.68</v>
       </c>
       <c r="G9" s="8">
         <v>254</v>
       </c>
       <c r="H9" s="8">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="I9" s="8">
-        <v>41.78</v>
+        <v>6.4980000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1">
@@ -688,28 +672,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="8">
-        <v>157.47999999999999</v>
+        <v>165.1</v>
       </c>
       <c r="D10" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8">
-        <v>106.68</v>
+        <v>81.28</v>
       </c>
       <c r="F10" s="8">
-        <v>127</v>
+        <v>88.9</v>
       </c>
       <c r="G10" s="8">
-        <v>304.8</v>
+        <v>254</v>
       </c>
       <c r="H10" s="8">
-        <v>57</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="I10" s="8">
+        <v>41.78</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1">
@@ -717,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8">
         <v>157.47999999999999</v>
       </c>
       <c r="D11" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="8">
-        <v>114.3</v>
+        <v>106.68</v>
       </c>
       <c r="F11" s="8">
-        <v>106.68</v>
+        <v>127</v>
       </c>
       <c r="G11" s="8">
         <v>304.8</v>
       </c>
       <c r="H11" s="8">
-        <v>44</v>
-      </c>
-      <c r="I11" s="8">
-        <v>8.8239999999999998</v>
+        <v>57</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1">
@@ -746,28 +730,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8">
-        <v>160.02000000000001</v>
+        <v>157.47999999999999</v>
       </c>
       <c r="D12" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8">
-        <v>139.69999999999999</v>
+        <v>114.3</v>
       </c>
       <c r="F12" s="8">
         <v>106.68</v>
       </c>
       <c r="G12" s="8">
-        <v>254</v>
+        <v>304.8</v>
       </c>
       <c r="H12" s="8">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I12" s="8">
-        <v>9.1750000000000007</v>
+        <v>8.8239999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="8" customFormat="1">
@@ -775,19 +759,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="8">
-        <v>177.8</v>
+        <v>160.02000000000001</v>
       </c>
       <c r="D13" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8">
-        <v>127</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="F13" s="8">
-        <v>127</v>
+        <v>106.68</v>
       </c>
       <c r="G13" s="8">
         <v>254</v>
@@ -796,7 +780,7 @@
         <v>50</v>
       </c>
       <c r="I13" s="8">
-        <v>21.34</v>
+        <v>9.1750000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="8" customFormat="1">
@@ -804,57 +788,57 @@
         <v>8</v>
       </c>
       <c r="B14" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8">
-        <v>193.04</v>
+        <v>177.8</v>
       </c>
       <c r="D14" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="8">
-        <v>139.69999999999999</v>
+        <v>127</v>
       </c>
       <c r="F14" s="8">
-        <v>152.4</v>
+        <v>127</v>
       </c>
       <c r="G14" s="8">
         <v>254</v>
       </c>
       <c r="H14" s="8">
-        <v>52</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="I14" s="8">
+        <v>21.34</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8">
+        <v>193.04</v>
+      </c>
+      <c r="D15" s="8">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="F15" s="8">
         <v>152.4</v>
       </c>
-      <c r="D15" s="8">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8">
-        <v>88.9</v>
-      </c>
-      <c r="F15" s="8">
-        <v>101.6</v>
-      </c>
       <c r="G15" s="8">
-        <v>152.4</v>
+        <v>254</v>
       </c>
       <c r="H15" s="8">
         <v>52</v>
       </c>
-      <c r="I15" s="8">
-        <v>20.539000000000001</v>
+      <c r="I15" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="8" customFormat="1">
@@ -862,28 +846,28 @@
         <v>9</v>
       </c>
       <c r="B16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="8">
-        <v>190.5</v>
+        <v>152.4</v>
       </c>
       <c r="D16" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" s="8">
-        <v>101.6</v>
+        <v>88.9</v>
       </c>
       <c r="F16" s="8">
-        <v>96.52</v>
+        <v>101.6</v>
       </c>
       <c r="G16" s="8">
-        <v>254</v>
+        <v>152.4</v>
       </c>
       <c r="H16" s="8">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I16" s="8">
-        <v>32.914999999999999</v>
+        <v>20.539000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="8" customFormat="1">
@@ -891,28 +875,28 @@
         <v>9</v>
       </c>
       <c r="B17" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="8">
-        <v>177.8</v>
+        <v>190.5</v>
       </c>
       <c r="D17" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="8">
-        <v>134.62</v>
+        <v>101.6</v>
       </c>
       <c r="F17" s="8">
-        <v>127</v>
+        <v>96.52</v>
       </c>
       <c r="G17" s="8">
-        <v>177.8</v>
+        <v>254</v>
       </c>
       <c r="H17" s="8">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I17" s="8">
-        <v>5.0990000000000002</v>
+        <v>32.914999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="8" customFormat="1">
@@ -920,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B18" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="8">
         <v>177.8</v>
       </c>
       <c r="D18" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="8">
-        <v>106.68</v>
+        <v>134.62</v>
       </c>
       <c r="F18" s="8">
-        <v>142.24</v>
+        <v>127</v>
       </c>
       <c r="G18" s="8">
-        <v>279.39999999999998</v>
+        <v>177.8</v>
       </c>
       <c r="H18" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8">
-        <v>44.353000000000002</v>
+        <v>5.0990000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="8" customFormat="1">
@@ -949,28 +933,28 @@
         <v>9</v>
       </c>
       <c r="B19" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="8">
-        <v>190.5</v>
+        <v>177.8</v>
       </c>
       <c r="D19" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="8">
-        <v>101.6</v>
+        <v>106.68</v>
       </c>
       <c r="F19" s="8">
-        <v>101.6</v>
+        <v>142.24</v>
       </c>
       <c r="G19" s="8">
-        <v>317.5</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="H19" s="8">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8">
-        <v>50.869</v>
+        <v>44.353000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1">
@@ -978,28 +962,28 @@
         <v>9</v>
       </c>
       <c r="B20" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="8">
-        <v>165.1</v>
+        <v>190.5</v>
       </c>
       <c r="D20" s="8">
         <v>18</v>
       </c>
       <c r="E20" s="8">
-        <v>109.22</v>
+        <v>101.6</v>
       </c>
       <c r="F20" s="8">
-        <v>142.24</v>
+        <v>101.6</v>
       </c>
       <c r="G20" s="8">
-        <v>279.39999999999998</v>
+        <v>317.5</v>
       </c>
       <c r="H20" s="8">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="I20" s="8">
-        <v>18.055</v>
+        <v>50.869</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1">
@@ -1007,28 +991,28 @@
         <v>9</v>
       </c>
       <c r="B21" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8">
-        <v>177.8</v>
+        <v>165.1</v>
       </c>
       <c r="D21" s="8">
         <v>18</v>
       </c>
       <c r="E21" s="8">
-        <v>114.3</v>
+        <v>109.22</v>
       </c>
       <c r="F21" s="8">
-        <v>134.62</v>
+        <v>142.24</v>
       </c>
       <c r="G21" s="8">
         <v>279.39999999999998</v>
       </c>
       <c r="H21" s="8">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="I21" s="8">
-        <v>42.866999999999997</v>
+        <v>18.055</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="8" customFormat="1">
@@ -1036,57 +1020,57 @@
         <v>9</v>
       </c>
       <c r="B22" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="8">
-        <v>185.42</v>
+        <v>177.8</v>
       </c>
       <c r="D22" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="8">
-        <v>88.9</v>
+        <v>114.3</v>
       </c>
       <c r="F22" s="8">
-        <v>88.9</v>
+        <v>134.62</v>
       </c>
       <c r="G22" s="8">
-        <v>254</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="H22" s="8">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="I22" s="8">
-        <v>8.6620000000000008</v>
+        <v>42.866999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="8" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C23" s="8">
         <v>185.42</v>
       </c>
       <c r="D23" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" s="8">
-        <v>101.6</v>
+        <v>88.9</v>
       </c>
       <c r="F23" s="8">
-        <v>96.52</v>
+        <v>88.9</v>
       </c>
       <c r="G23" s="8">
-        <v>279.39999999999998</v>
+        <v>254</v>
       </c>
       <c r="H23" s="8">
-        <v>20</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="I23" s="8">
+        <v>8.6620000000000008</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="8" customFormat="1">
@@ -1094,28 +1078,28 @@
         <v>10</v>
       </c>
       <c r="B24" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="8">
-        <v>190.5</v>
+        <v>185.42</v>
       </c>
       <c r="D24" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="8">
-        <v>106.68</v>
+        <v>101.6</v>
       </c>
       <c r="F24" s="8">
-        <v>139.69999999999999</v>
+        <v>96.52</v>
       </c>
       <c r="G24" s="8">
-        <v>254</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="H24" s="8">
-        <v>10</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1.224</v>
+        <v>20</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="8" customFormat="1">
@@ -1123,28 +1107,28 @@
         <v>10</v>
       </c>
       <c r="B25" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="8">
         <v>190.5</v>
       </c>
       <c r="D25" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="8">
-        <v>88.9</v>
+        <v>106.68</v>
       </c>
       <c r="F25" s="8">
-        <v>101.6</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="G25" s="8">
-        <v>279.39999999999998</v>
+        <v>254</v>
       </c>
       <c r="H25" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I25" s="8">
-        <v>6.0410000000000004</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1">
@@ -1152,28 +1136,28 @@
         <v>10</v>
       </c>
       <c r="B26" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="8">
-        <v>177.8</v>
+        <v>190.5</v>
       </c>
       <c r="D26" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="8">
-        <v>101.6</v>
+        <v>88.9</v>
       </c>
       <c r="F26" s="8">
-        <v>139.69999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="G26" s="8">
-        <v>254</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="H26" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I26" s="8">
-        <v>4.3019999999999996</v>
+        <v>6.0410000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1">
@@ -1181,28 +1165,28 @@
         <v>10</v>
       </c>
       <c r="B27" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8">
         <v>177.8</v>
       </c>
       <c r="D27" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="8">
-        <v>114.3</v>
+        <v>101.6</v>
       </c>
       <c r="F27" s="8">
-        <v>127</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="G27" s="8">
-        <v>279.39999999999998</v>
+        <v>254</v>
       </c>
       <c r="H27" s="8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I27" s="8">
-        <v>2.1040000000000001</v>
+        <v>4.3019999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1">
@@ -1210,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="8">
-        <v>185.42</v>
+        <v>177.8</v>
       </c>
       <c r="D28" s="8">
         <v>17</v>
@@ -1228,10 +1212,10 @@
         <v>279.39999999999998</v>
       </c>
       <c r="H28" s="8">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I28" s="8">
-        <v>3.18</v>
+        <v>2.1040000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1">
@@ -1239,28 +1223,28 @@
         <v>10</v>
       </c>
       <c r="B29" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="8">
-        <v>152.4</v>
+        <v>185.42</v>
       </c>
       <c r="D29" s="8">
         <v>17</v>
       </c>
       <c r="E29" s="8">
-        <v>139.69999999999999</v>
+        <v>114.3</v>
       </c>
       <c r="F29" s="8">
         <v>127</v>
       </c>
       <c r="G29" s="8">
-        <v>304.8</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="H29" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" s="8">
-        <v>5.1710000000000003</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="8" customFormat="1">
@@ -1268,36 +1252,36 @@
         <v>10</v>
       </c>
       <c r="B30" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="8">
-        <v>177.8</v>
+        <v>152.4</v>
       </c>
       <c r="D30" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="8">
-        <v>101.6</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="F30" s="8">
-        <v>114.3</v>
+        <v>127</v>
       </c>
       <c r="G30" s="8">
-        <v>317.5</v>
+        <v>304.8</v>
       </c>
       <c r="H30" s="8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I30" s="8">
-        <v>2.7189999999999999</v>
+        <v>5.1710000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="8" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C31" s="8">
         <v>177.8</v>
@@ -1309,16 +1293,16 @@
         <v>101.6</v>
       </c>
       <c r="F31" s="8">
-        <v>127</v>
+        <v>114.3</v>
       </c>
       <c r="G31" s="8">
-        <v>279.39999999999998</v>
+        <v>317.5</v>
       </c>
       <c r="H31" s="8">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I31" s="8">
-        <v>3.1869999999999998</v>
+        <v>2.7189999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1">
@@ -1326,28 +1310,28 @@
         <v>11</v>
       </c>
       <c r="B32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="8">
-        <v>190.5</v>
+        <v>177.8</v>
       </c>
       <c r="D32" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E32" s="8">
-        <v>76.2</v>
+        <v>101.6</v>
       </c>
       <c r="F32" s="8">
-        <v>76.2</v>
+        <v>127</v>
       </c>
       <c r="G32" s="8">
-        <v>254</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="H32" s="8">
-        <v>45</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="I32" s="8">
+        <v>3.1869999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1">
@@ -1355,28 +1339,28 @@
         <v>11</v>
       </c>
       <c r="B33" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="8">
-        <v>172.72</v>
+        <v>190.5</v>
       </c>
       <c r="D33" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="8">
-        <v>88.9</v>
+        <v>76.2</v>
       </c>
       <c r="F33" s="8">
-        <v>101.6</v>
+        <v>76.2</v>
       </c>
       <c r="G33" s="8">
-        <v>279.39999999999998</v>
+        <v>254</v>
       </c>
       <c r="H33" s="8">
-        <v>39</v>
-      </c>
-      <c r="I33" s="8">
-        <v>8.0519999999999996</v>
+        <v>45</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1">
@@ -1384,28 +1368,28 @@
         <v>11</v>
       </c>
       <c r="B34" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="8">
-        <v>152.4</v>
+        <v>172.72</v>
       </c>
       <c r="D34" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="8">
-        <v>101.6</v>
+        <v>88.9</v>
       </c>
       <c r="F34" s="8">
-        <v>127</v>
+        <v>101.6</v>
       </c>
       <c r="G34" s="8">
         <v>279.39999999999998</v>
       </c>
       <c r="H34" s="8">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="I34" s="8">
-        <v>12.6</v>
+        <v>8.0519999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="8" customFormat="1">
@@ -1413,10 +1397,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="8">
-        <v>185.42</v>
+        <v>152.4</v>
       </c>
       <c r="D35" s="8">
         <v>18</v>
@@ -1428,13 +1412,13 @@
         <v>127</v>
       </c>
       <c r="G35" s="8">
-        <v>254</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="H35" s="8">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I35" s="8">
-        <v>1.175</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="8" customFormat="1">
@@ -1442,10 +1426,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="8">
-        <v>203.2</v>
+        <v>185.42</v>
       </c>
       <c r="D36" s="8">
         <v>18</v>
@@ -1457,13 +1441,13 @@
         <v>127</v>
       </c>
       <c r="G36" s="8">
-        <v>228.6</v>
+        <v>254</v>
       </c>
       <c r="H36" s="8">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I36" s="8">
-        <v>5.6470000000000002</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="8" customFormat="1">
@@ -1471,13 +1455,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="8">
-        <v>172.72</v>
+        <v>203.2</v>
       </c>
       <c r="D37" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E37" s="8">
         <v>101.6</v>
@@ -1486,13 +1470,13 @@
         <v>127</v>
       </c>
       <c r="G37" s="8">
-        <v>304.8</v>
+        <v>228.6</v>
       </c>
       <c r="H37" s="8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I37" s="8">
-        <v>13.273</v>
+        <v>5.6470000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="8" customFormat="1">
@@ -1500,57 +1484,57 @@
         <v>11</v>
       </c>
       <c r="B38" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="8">
-        <v>182.88</v>
+        <v>172.72</v>
       </c>
       <c r="D38" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="8">
-        <v>96.52</v>
+        <v>101.6</v>
       </c>
       <c r="F38" s="8">
         <v>127</v>
       </c>
       <c r="G38" s="8">
-        <v>317.5</v>
+        <v>304.8</v>
       </c>
       <c r="H38" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I38" s="8">
-        <v>13.935</v>
+        <v>13.273</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="8" customFormat="1">
       <c r="A39" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C39" s="8">
-        <v>152.4</v>
+        <v>182.88</v>
       </c>
       <c r="D39" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39" s="8">
-        <v>101.6</v>
+        <v>96.52</v>
       </c>
       <c r="F39" s="8">
-        <v>101.6</v>
+        <v>127</v>
       </c>
       <c r="G39" s="8">
-        <v>292.10000000000002</v>
+        <v>317.5</v>
       </c>
       <c r="H39" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I39" s="8">
-        <v>2.9319999999999999</v>
+        <v>13.935</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="8" customFormat="1">
@@ -1558,16 +1542,16 @@
         <v>12</v>
       </c>
       <c r="B40" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="8">
-        <v>139.69999999999999</v>
+        <v>152.4</v>
       </c>
       <c r="D40" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="8">
-        <v>96.52</v>
+        <v>101.6</v>
       </c>
       <c r="F40" s="8">
         <v>101.6</v>
@@ -1576,10 +1560,10 @@
         <v>292.10000000000002</v>
       </c>
       <c r="H40" s="8">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I40" s="8">
-        <v>25.175999999999998</v>
+        <v>2.9319999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="8" customFormat="1">
@@ -1587,28 +1571,28 @@
         <v>12</v>
       </c>
       <c r="B41" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="8">
-        <v>165.1</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="D41" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" s="8">
-        <v>101.6</v>
+        <v>96.52</v>
       </c>
       <c r="F41" s="8">
-        <v>114.3</v>
+        <v>101.6</v>
       </c>
       <c r="G41" s="8">
-        <v>317.5</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="H41" s="8">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I41" s="8">
-        <v>7.52</v>
+        <v>25.175999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="8" customFormat="1">
@@ -1616,28 +1600,28 @@
         <v>12</v>
       </c>
       <c r="B42" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="8">
         <v>165.1</v>
       </c>
       <c r="D42" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="8">
-        <v>76.2</v>
+        <v>101.6</v>
       </c>
       <c r="F42" s="8">
-        <v>76.2</v>
+        <v>114.3</v>
       </c>
       <c r="G42" s="8">
-        <v>228.6</v>
+        <v>317.5</v>
       </c>
       <c r="H42" s="8">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I42" s="8">
-        <v>3.4790000000000001</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="8" customFormat="1">
@@ -1645,28 +1629,28 @@
         <v>12</v>
       </c>
       <c r="B43" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="8">
-        <v>177.8</v>
+        <v>165.1</v>
       </c>
       <c r="D43" s="8">
         <v>17</v>
       </c>
       <c r="E43" s="8">
-        <v>114.3</v>
+        <v>76.2</v>
       </c>
       <c r="F43" s="8">
-        <v>101.6</v>
+        <v>76.2</v>
       </c>
       <c r="G43" s="8">
-        <v>317.5</v>
+        <v>228.6</v>
       </c>
       <c r="H43" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I43" s="8">
-        <v>3.1320000000000001</v>
+        <v>3.4790000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="8" customFormat="1">
@@ -1674,28 +1658,28 @@
         <v>12</v>
       </c>
       <c r="B44" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="8">
-        <v>172.72</v>
+        <v>177.8</v>
       </c>
       <c r="D44" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E44" s="8">
-        <v>127</v>
+        <v>114.3</v>
       </c>
       <c r="F44" s="8">
-        <v>152.4</v>
+        <v>101.6</v>
       </c>
       <c r="G44" s="8">
-        <v>304.8</v>
+        <v>317.5</v>
       </c>
       <c r="H44" s="8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I44" s="8">
-        <v>4.9489999999999998</v>
+        <v>3.1320000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="8" customFormat="1">
@@ -1703,62 +1687,91 @@
         <v>12</v>
       </c>
       <c r="B45" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="8">
-        <v>177.8</v>
+        <v>172.72</v>
       </c>
       <c r="D45" s="8">
         <v>12</v>
       </c>
       <c r="E45" s="8">
-        <v>101.6</v>
+        <v>127</v>
       </c>
       <c r="F45" s="8">
-        <v>127</v>
+        <v>152.4</v>
       </c>
       <c r="G45" s="8">
         <v>304.8</v>
       </c>
       <c r="H45" s="8">
+        <v>31</v>
+      </c>
+      <c r="I45" s="8">
+        <v>4.9489999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="8" customFormat="1">
+      <c r="A46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="8">
+        <v>7</v>
+      </c>
+      <c r="C46" s="8">
+        <v>177.8</v>
+      </c>
+      <c r="D46" s="8">
+        <v>12</v>
+      </c>
+      <c r="E46" s="8">
+        <v>101.6</v>
+      </c>
+      <c r="F46" s="8">
+        <v>127</v>
+      </c>
+      <c r="G46" s="8">
+        <v>304.8</v>
+      </c>
+      <c r="H46" s="8">
         <v>80</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I46" s="8">
         <v>29.594000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="8" customFormat="1">
-      <c r="A46" s="10" t="s">
+    <row r="47" spans="1:9" s="8" customFormat="1">
+      <c r="A47" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B47" s="10">
         <v>8</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C47" s="10">
         <v>203.2</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>16</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>127</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>139.69999999999999</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>304.8</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H47" s="10">
         <v>83</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I47" s="10">
         <v>28.085000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:N46">
-    <sortCondition ref="B39:B46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:N47">
+    <sortCondition ref="B40:B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
